--- a/biology/Zoologie/Astrild_à_croupion_rose/Astrild_à_croupion_rose.xlsx
+++ b/biology/Zoologie/Astrild_à_croupion_rose/Astrild_à_croupion_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Astrild_%C3%A0_croupion_rose</t>
+          <t>Astrild_à_croupion_rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Estrilda rhodopyga
 L’Astrild à croupion rose ou Astrild à dos rouge (Estrilda rhodopyga) est une espèce de passereaux de la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Astrild_%C3%A0_croupion_rose</t>
+          <t>Astrild_à_croupion_rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10 cm de longueur. Les bandes oculaires rouges sont plus importantes chez le mâle que chez la femelle. Les rémiges secondaires et les rectrices médianes sont bordées de rouge. Le croupion est rose cramoisi d'où l'un de ses noms spécifiques. Les parties inférieures sont beige avec de petites stries plus ou moins distinctes sur les flancs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Astrild_%C3%A0_croupion_rose</t>
+          <t>Astrild_à_croupion_rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se trouve au Burundi, en République démocratique du Congo, à Djibouti, en Égypte, en Érythrée, en Éthiopie, au Kenya, au Malawi, en Ouganda, au Rwanda, en Somalie, au Soudan et en Tanzanie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Astrild_%C3%A0_croupion_rose</t>
+          <t>Astrild_à_croupion_rose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les milieux agricoles et les abords de villages.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Astrild_%C3%A0_croupion_rose</t>
+          <t>Astrild_à_croupion_rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est représenté par deux sous-espèces.
 </t>
